--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -23,9 +23,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t xml:space="preserve">North American Electrict Reliability Coorporation </t>
-  </si>
-  <si>
     <t>http://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/2015_Summer_Reliability_Assessment.pdf</t>
   </si>
   <si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>Perc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North American Electric Reliability Corporation </t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,17 +416,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -448,12 +448,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>0.14119999999999999</v>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Source:</t>
   </si>
   <si>
+    <t xml:space="preserve">North American Electrict Reliability Coorporation </t>
+  </si>
+  <si>
     <t>http://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/2015_Summer_Reliability_Assessment.pdf</t>
   </si>
   <si>
@@ -35,10 +38,13 @@
     <t>Reserve Margin</t>
   </si>
   <si>
-    <t>Perc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North American Electric Reliability Corporation </t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
+  </si>
+  <si>
+    <t>countries that project changes in future reserve margin by year.</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,17 +422,32 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -440,22 +461,117 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0.14119999999999999</v>
       </c>
     </row>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RM" sheetId="2" r:id="rId2"/>
+    <sheet name="DATA" sheetId="3" r:id="rId2"/>
+    <sheet name="RM" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -23,28 +24,70 @@
     <t>Source:</t>
   </si>
   <si>
-    <t xml:space="preserve">North American Electrict Reliability Coorporation </t>
-  </si>
-  <si>
-    <t>http://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/2015_Summer_Reliability_Assessment.pdf</t>
-  </si>
-  <si>
-    <t>p.3, Table 1: Projected Demand, Resources, and Planning Reserve Margins, NERC Reference Margin Level (%)</t>
-  </si>
-  <si>
-    <t>2015 Summer Reliability Assessment</t>
-  </si>
-  <si>
     <t>Reserve Margin</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The reserve margin in the U.S. dataset doesn't vary by year, but the RM Reserve Margin variable is a time series to support</t>
-  </si>
-  <si>
-    <t>countries that project changes in future reserve margin by year.</t>
+    <t>Prospectiva del sector eléctrico 2017-2031</t>
+  </si>
+  <si>
+    <t>SENER</t>
+  </si>
+  <si>
+    <t>https://www.gob.mx/cms/uploads/attachment/file/325640/Prospectiva_del_Setor_El_ctrico_2017-2031.pdf</t>
+  </si>
+  <si>
+    <t>Figure 3.23,pg 90.</t>
+  </si>
+  <si>
+    <t>We have data on the reserve margin used by the Mexican system from SENER.</t>
+  </si>
+  <si>
+    <t>However, the Mexican system starts over-built (with more capacity than needed),</t>
+  </si>
+  <si>
+    <t>These reserve margins are very high.</t>
+  </si>
+  <si>
+    <t>so the high reserve margins don't have any effect until far-out years, when they are</t>
+  </si>
+  <si>
+    <t>flat at 23%.</t>
+  </si>
+  <si>
+    <t>That is an unusually high level at which to voluntarily maintain a reserve margin,</t>
+  </si>
+  <si>
+    <t>and it causes the model to build an unrealistic amount of peaking resources</t>
+  </si>
+  <si>
+    <t>(petroleum and NG peakers) just to meet the reserve margin requirements in the</t>
+  </si>
+  <si>
+    <t>post-2030 timeframe.</t>
+  </si>
+  <si>
+    <t>It is not certain what the Reserve Margin policy requirements will be so far in the</t>
+  </si>
+  <si>
+    <t>future.  Picking a more normal value for reserve margin helps normalize the</t>
+  </si>
+  <si>
+    <t>electric sector in those far-out years.</t>
+  </si>
+  <si>
+    <t>Accordingly, we choose not to use the SENER data, and instead adopt a</t>
+  </si>
+  <si>
+    <t>fixed reserve margin of:</t>
+  </si>
+  <si>
+    <t>This only has an effect in the out-years, due to the over-built starting</t>
+  </si>
+  <si>
+    <t>state of the model.</t>
   </si>
 </sst>
 </file>
@@ -105,8 +148,60 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEFDD260-DEA0-FD4B-8653-112F80B3523F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="1333500"/>
+          <a:ext cx="7975600" cy="5575300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,58 +491,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -458,121 +628,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2:AJ2" si="0">Q2</f>
+        <v>0.23</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="V2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="Z2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AD2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AE2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AF2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AG2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AH2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AI2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="C2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="D2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="E2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="H2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="I2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="J2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="K2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="L2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="M2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="N2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="O2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="P2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.14119999999999999</v>
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="S2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="T2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="U2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="V2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="W2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="X2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AD2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AE2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AF2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AH2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f>About!$A$27</f>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
